--- a/QuaySoMayMan_PC/QuaySoMayMan_PC/danhsach.xlsx
+++ b/QuaySoMayMan_PC/QuaySoMayMan_PC/danhsach.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="279">
   <si>
     <t>STT</t>
   </si>
@@ -30,56 +30,867 @@
     <t>CongTy</t>
   </si>
   <si>
-    <t>Quay</t>
-  </si>
-  <si>
-    <t>Trần Thị Ngọc Luyến</t>
-  </si>
-  <si>
-    <t>BGĐ</t>
-  </si>
-  <si>
-    <t>Phạm Khương Thảo</t>
-  </si>
-  <si>
-    <t>Trương Tấn Quốc</t>
-  </si>
-  <si>
-    <t>Trần Công Lễ</t>
-  </si>
-  <si>
-    <t>Vũ Khánh Trùng Dương</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh Tuyền</t>
-  </si>
-  <si>
-    <t>Hồ Thị Quý Bình</t>
-  </si>
-  <si>
-    <t>TCHC</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Ánh Hoa</t>
-  </si>
-  <si>
-    <t>Dương Thị Hồng Hạnh</t>
-  </si>
-  <si>
-    <t>Đặng Ngọc Linh</t>
+    <t>Đinh Duy Thành</t>
+  </si>
+  <si>
+    <t>Ban kiểm tra nội bộ</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Luân</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Thiện</t>
+  </si>
+  <si>
+    <t>Vũ Đức Thắng</t>
+  </si>
+  <si>
+    <t>Dương Thế Hùng</t>
+  </si>
+  <si>
+    <t>Bộ phận thiết kế tem nhãn</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoàng Vy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Yến Trang</t>
+  </si>
+  <si>
+    <t>Trương Thị Hồng Hạnh</t>
+  </si>
+  <si>
+    <t>Phòng kế toán - HM</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Võ Thị Cẩm Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Hoa</t>
+  </si>
+  <si>
+    <t>Vũ Phạm Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Trần Thị Nguyên</t>
+  </si>
+  <si>
+    <t>Phan Thị Vận</t>
+  </si>
+  <si>
+    <t>Bùi Nguyễn Gia Phúc</t>
+  </si>
+  <si>
+    <t>Phòng kinh doanh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Mai Hồng</t>
+  </si>
+  <si>
+    <t>Mai Thị Thu Duyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Kiều Mai Phương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diệu Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thu Nhàn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thùy Kim Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Trần Trúc Khuyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tâm</t>
+  </si>
+  <si>
+    <t>Phạm Thu Hà</t>
+  </si>
+  <si>
+    <t>Trần Hải Đăng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hạnh Phú</t>
+  </si>
+  <si>
+    <t>Phòng tổng hợp-BD</t>
+  </si>
+  <si>
+    <t>Bùi Xuân Duẩn</t>
+  </si>
+  <si>
+    <t>Lê Hoàng Điệp</t>
+  </si>
+  <si>
+    <t>Lê Nhật Thanh</t>
+  </si>
+  <si>
+    <t>Lê Thị Bắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Trâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết Mai</t>
+  </si>
+  <si>
+    <t>Trương Thị Thùy Dung</t>
+  </si>
+  <si>
+    <t>Trần Thị Kim Hồng</t>
+  </si>
+  <si>
+    <t>Phòng tổng hợp-HM</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lai</t>
+  </si>
+  <si>
+    <t>Phạm Hưng Kiên</t>
+  </si>
+  <si>
+    <t>Vũ Thị Tuyến</t>
+  </si>
+  <si>
+    <t>Phạm Thị Mai Thi</t>
+  </si>
+  <si>
+    <t>Bùi Thị Kim Cúc</t>
+  </si>
+  <si>
+    <t>Bùi Huỳnh Tuấn Tài</t>
+  </si>
+  <si>
+    <t>PX Băng cuộn</t>
+  </si>
+  <si>
+    <t>Bùi Thanh Nhân</t>
+  </si>
+  <si>
+    <t>Bùi Tường Duy</t>
+  </si>
+  <si>
+    <t>Đoàn Thống Nhất</t>
+  </si>
+  <si>
+    <t>Dương Thị Mỹ Chi</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Anh Đào</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Cẩm Dung</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Thanh Dung</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Anh</t>
+  </si>
+  <si>
+    <t>Phạm Minh Phước</t>
+  </si>
+  <si>
+    <t>Trịnh Hữu Thọ</t>
+  </si>
+  <si>
+    <t>Bùi Minh Vương</t>
+  </si>
+  <si>
+    <t>PX Băng miếng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hồng Ngân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Tình Duyên</t>
+  </si>
+  <si>
+    <t>Cao Kim Hồng</t>
+  </si>
+  <si>
+    <t>Cao Thị Kim Tuyến</t>
+  </si>
+  <si>
+    <t>Cao Thị Ngoan</t>
+  </si>
+  <si>
+    <t>Đoàn Thùy Hồng Châu</t>
+  </si>
+  <si>
+    <t>Giang Ngọc Phương</t>
+  </si>
+  <si>
+    <t>Hà Thị Thanh Lan</t>
+  </si>
+  <si>
+    <t>Hồ Thị Mai Liên</t>
+  </si>
+  <si>
+    <t>Hồ Thị Mỹ Viên</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Trang</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Nhân</t>
+  </si>
+  <si>
+    <t>Lê Thị Huyền Trân</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Thoa</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngọc Huyền</t>
+  </si>
+  <si>
+    <t>Lê Thị Thu Nga</t>
+  </si>
+  <si>
+    <t>Lê Thị Vân</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Phấn</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mỹ Dung</t>
+  </si>
+  <si>
+    <t>Ngô Thị Ngọc Thu</t>
+  </si>
+  <si>
+    <t>Ngô Văn Tám</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Hương</t>
+  </si>
+  <si>
+    <t>Nguyễn Mộng Thanh Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Phượng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh Thy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huệ Hiền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Huyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Oanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mai Hoa</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Hạnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phước</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Nữ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thê</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thêu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Út</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Yến</t>
+  </si>
+  <si>
+    <t>Phạm Thị Trúc</t>
+  </si>
+  <si>
+    <t>Phạm Thụy Hồng Diễm</t>
+  </si>
+  <si>
+    <t>Trần Văn Hải</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Thùy Linh</t>
+  </si>
+  <si>
+    <t>Tô Ngọc Hậu</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Tân</t>
+  </si>
+  <si>
+    <t>Ngô Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Tình</t>
+  </si>
+  <si>
+    <t>Viên Thị Cẩm Tú</t>
+  </si>
+  <si>
+    <t>Võ Thị Thùy</t>
+  </si>
+  <si>
+    <t>Đặng Thị Liểu</t>
+  </si>
+  <si>
+    <t>PX Bông gòn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Ngọc</t>
+  </si>
+  <si>
+    <t>Đinh Thị Hà</t>
+  </si>
+  <si>
+    <t>Đoàn Văn Nam</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Dung</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Khiểm</t>
+  </si>
+  <si>
+    <t>Lại Thị Hiển</t>
+  </si>
+  <si>
+    <t>Lê Thị Kim Loan</t>
+  </si>
+  <si>
+    <t>Lê Thị Nhung</t>
+  </si>
+  <si>
+    <t>Lương Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Mai Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hường</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Chi</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Loan</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nga</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nhuận</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thơ</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thuận</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thủy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Nguyệt</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thành</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Y</t>
+  </si>
+  <si>
+    <t>Nhâm Niệm Nghi</t>
+  </si>
+  <si>
+    <t>Phạm Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Phạm Thị Nhung</t>
+  </si>
+  <si>
+    <t>Phạm Văn Minh</t>
+  </si>
+  <si>
+    <t>Trần Thị Chọn</t>
+  </si>
+  <si>
+    <t>Trần Thị Kim Dung</t>
+  </si>
+  <si>
+    <t>Trần Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>Trần Văn Hiệp</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Thủy</t>
+  </si>
+  <si>
+    <t>Trương Thị Ngọc Thúy</t>
+  </si>
+  <si>
+    <t>Trương Văn Vương</t>
+  </si>
+  <si>
+    <t>Bùi Văn Chính</t>
+  </si>
+  <si>
+    <t>PX Bông ký</t>
+  </si>
+  <si>
+    <t>Đặng Thị Mộng Thu</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Hai Rơ</t>
+  </si>
+  <si>
+    <t>Đổng Thị Thùy Trang</t>
+  </si>
+  <si>
+    <t>Huỳnh Tấn Mến</t>
+  </si>
+  <si>
+    <t>Ngô Thị Kim Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Đào</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Tâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Kim Tuyến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thảo Vy</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>Phan Thúy Hằng</t>
+  </si>
+  <si>
+    <t>Phan Văn Tài</t>
+  </si>
+  <si>
+    <t>Phan Vũ Duy</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Hiếu</t>
+  </si>
+  <si>
+    <t>Võ Thị Mỹ Đào</t>
+  </si>
+  <si>
+    <t>Võ Thị Mỹ Nhân</t>
+  </si>
+  <si>
+    <t>Đinh Quốc Nam</t>
+  </si>
+  <si>
+    <t>PX Chải</t>
+  </si>
+  <si>
+    <t>Đinh Trương Sang</t>
+  </si>
+  <si>
+    <t>Huỳnh Tấn Phát</t>
+  </si>
+  <si>
+    <t>Ngô Thanh Tuyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Hận</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Sơn</t>
+  </si>
+  <si>
+    <t>Phạm Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Liệt</t>
+  </si>
+  <si>
+    <t>Cao Thọ Hồng</t>
+  </si>
+  <si>
+    <t>PX Dệt thun</t>
+  </si>
+  <si>
+    <t>Huỳnh Quốc Phong</t>
+  </si>
+  <si>
+    <t>Lê Thanh Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh</t>
+  </si>
+  <si>
+    <t>Huỳnh Phước Hạnh</t>
+  </si>
+  <si>
+    <t>PX Hoàn tất  bông</t>
+  </si>
+  <si>
+    <t>Lê Tuấn Bảo</t>
+  </si>
+  <si>
+    <t>Mai Thanh Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Minh</t>
+  </si>
+  <si>
+    <t>Phạm Thế Đăng</t>
+  </si>
+  <si>
+    <t>Phan Quốc Thắng</t>
+  </si>
+  <si>
+    <t>Bùi Đông Giao</t>
+  </si>
+  <si>
+    <t>PX Hoàn tất gạc</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hùng</t>
+  </si>
+  <si>
+    <t>Nguyễn Trí Dũng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Độ</t>
+  </si>
+  <si>
+    <t>PX Khẩu trang</t>
+  </si>
+  <si>
+    <t>Huỳnh Thế Luân</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Khanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng Diên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Nương</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hòa</t>
+  </si>
+  <si>
+    <t>Phạm Thị Hằng</t>
+  </si>
+  <si>
+    <t>Dương Thị Thu Hiền</t>
+  </si>
+  <si>
+    <t>Tạ Thị  Xinh</t>
+  </si>
+  <si>
+    <t>Trần Văn Lâm</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Bảo</t>
+  </si>
+  <si>
+    <t>PX Lò hơi</t>
+  </si>
+  <si>
+    <t>Mai Đăng Quang</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tạc</t>
+  </si>
+  <si>
+    <t>Trần Thị Dung</t>
+  </si>
+  <si>
+    <t>Thủ kho thành phẩm - HM</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Mỹ</t>
+  </si>
+  <si>
+    <t>Tổ bảo trì cơ điện</t>
+  </si>
+  <si>
+    <t>Dương Công Thành</t>
+  </si>
+  <si>
+    <t>Hoàng Mạnh  Cường</t>
+  </si>
+  <si>
+    <t>Lê Minh Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Hiệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Trí</t>
+  </si>
+  <si>
+    <t>Phạm Thanh Hậu</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Đinh Tuấn Dũng</t>
+  </si>
+  <si>
+    <t>Tổ bảo vệ - tạp vụ</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Mái</t>
+  </si>
+  <si>
+    <t>Huỳnh Văn Thuận</t>
+  </si>
+  <si>
+    <t>Lê Thị Bông</t>
+  </si>
+  <si>
+    <t>Lê Văn Hoàng</t>
+  </si>
+  <si>
+    <t>Ngọ Thị Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Châu</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Tư</t>
+  </si>
+  <si>
+    <t>Trần Tấn Chung</t>
+  </si>
+  <si>
+    <t>Trần Văn Tiến</t>
+  </si>
+  <si>
+    <t>Trịnh Đình Nghĩa</t>
+  </si>
+  <si>
+    <t>Võ Thị Ngọc Bích</t>
+  </si>
+  <si>
+    <t>Bùi Văn Phi</t>
+  </si>
+  <si>
+    <t>Tổ bốc xếp, tài xế - kho</t>
+  </si>
+  <si>
+    <t>Đỗ Ngọc Hoàng</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Pháp</t>
+  </si>
+  <si>
+    <t>Hà Văn Lợi</t>
+  </si>
+  <si>
+    <t>Huỳnh Nguyễn Đăng Danh</t>
+  </si>
+  <si>
+    <t>Huỳnh Xuân Sắt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Luân</t>
+  </si>
+  <si>
+    <t>Nguyễn Lộc Tuyết Trinh</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Sơn</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành Nhân</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hào</t>
+  </si>
+  <si>
+    <t>Phạm Kiến Quang</t>
+  </si>
+  <si>
+    <t>Phạm Mạnh Năng</t>
+  </si>
+  <si>
+    <t>Tao Tấn Đạt</t>
+  </si>
+  <si>
+    <t>Trần Minh Thân</t>
+  </si>
+  <si>
+    <t>Trần Văn Phúc</t>
+  </si>
+  <si>
+    <t>Trang Hữu Tiếp</t>
+  </si>
+  <si>
+    <t>Võ Văn Bé Thơ</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Lan Hương</t>
+  </si>
+  <si>
+    <t>Tổ KCS</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Minh Châu</t>
+  </si>
+  <si>
+    <t>Mai Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>Mai Thị Hồng Thu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Nhung</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Cẩm Tuyết</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diệu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thùy Ngân</t>
+  </si>
+  <si>
+    <t>Phạm Thị Kim Loan</t>
+  </si>
+  <si>
+    <t>Phan Thị Hồng Yến</t>
+  </si>
+  <si>
+    <t>Trần Thị Bích Vân</t>
+  </si>
+  <si>
+    <t>Trần Thị Kim Cúc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,7 +901,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,18 +909,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1 (4)" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,18 +1231,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,148 +1253,2831 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
